--- a/fuentes/contenidos/grado07/guion01/SolicitudGrafica LE_07_01_CO_REC240.xlsx
+++ b/fuentes/contenidos/grado07/guion01/SolicitudGrafica LE_07_01_CO_REC240.xlsx
@@ -1,16 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26207"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/auragarzon/Downloads/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="hX79YNGfHMUCcosWMoH0GQuhNo2gkebFrfW3do2TOcvwqaujU9m0uwOL5UkRtWEspAy/ISD2JB8+jf057W9mVA==" workbookSaltValue="uRz/CDpmZ5ecKheoN1C0Jw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="15360" tabRatio="500"/>
+    <workbookView xWindow="480" yWindow="480" windowWidth="25120" windowHeight="13760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Solicitud gráfica" sheetId="1" r:id="rId1"/>
@@ -21,7 +16,7 @@
     <definedName name="Formato">'Solicitud gráfica'!$L$2:$L$3</definedName>
     <definedName name="Ubicación">'Solicitud gráfica'!$M$2:$M$6</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -31,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="195">
   <si>
     <t>Fecha:</t>
   </si>
@@ -596,6 +591,27 @@
   </si>
   <si>
     <t>LE_07_01_REC240</t>
+  </si>
+  <si>
+    <t>El diario personal</t>
+  </si>
+  <si>
+    <t>Luis Felipe Pertuz</t>
+  </si>
+  <si>
+    <t>Fotografía</t>
+  </si>
+  <si>
+    <t>Casa al interior</t>
+  </si>
+  <si>
+    <t>Peluche</t>
+  </si>
+  <si>
+    <t>Camino de madera</t>
+  </si>
+  <si>
+    <t>Perro con orejas extendidas</t>
   </si>
 </sst>
 </file>
@@ -1261,8 +1277,36 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1636,57 +1680,85 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="51">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+  <cellStyles count="79">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="78" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
@@ -1784,7 +1856,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1792,20 +1864,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1839,7 +1897,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1847,20 +1905,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1894,7 +1938,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1902,20 +1946,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1949,7 +1979,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1957,20 +1987,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2004,7 +2020,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2012,20 +2028,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2059,7 +2061,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2067,20 +2069,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2114,7 +2102,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2122,20 +2110,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2473,10 +2447,10 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomLeft" activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="7" style="2" customWidth="1"/>
     <col min="2" max="2" width="21" style="2" customWidth="1"/>
@@ -2495,7 +2469,7 @@
     <col min="16" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="16.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:16" ht="16.25" thickBot="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2511,10 +2485,10 @@
       </c>
       <c r="M1" s="2" t="str">
         <f>CONCATENATE('Definición técnica de imagenes'!$B$1," ",$G$5)</f>
-        <v xml:space="preserve">Ubicación de la imagen en el recurso </v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+        <v>Ubicación de la imagen en el recurso M101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="16">
       <c r="A2" s="1"/>
       <c r="B2" s="3" t="s">
         <v>121</v>
@@ -2535,7 +2509,7 @@
       </c>
       <c r="M2" s="2" t="str">
         <f ca="1">IF($N2&lt;COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1+$N2,1,1,1),"")</f>
-        <v/>
+        <v>Contenido</v>
       </c>
       <c r="N2" s="2">
         <v>0</v>
@@ -2545,12 +2519,14 @@
         <v>M3A</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:16" ht="15.75">
       <c r="A3" s="1"/>
       <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="87"/>
+      <c r="C3" s="87">
+        <v>7</v>
+      </c>
       <c r="D3" s="88"/>
       <c r="F3" s="80"/>
       <c r="G3" s="81"/>
@@ -2572,12 +2548,14 @@
         <v>M5A</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="16">
       <c r="A4" s="1"/>
       <c r="B4" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="87"/>
+      <c r="C4" s="87" t="s">
+        <v>188</v>
+      </c>
       <c r="D4" s="88"/>
       <c r="E4" s="5"/>
       <c r="F4" s="37" t="s">
@@ -2602,19 +2580,23 @@
         <v>M6A</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="16.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:16" ht="16.25" thickBot="1">
       <c r="A5" s="1"/>
       <c r="B5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="89"/>
+      <c r="C5" s="89" t="s">
+        <v>189</v>
+      </c>
       <c r="D5" s="90"/>
       <c r="E5" s="5"/>
       <c r="F5" s="37" t="str">
         <f>IF(G4="Recurso","Motor del recurso","")</f>
         <v>Motor del recurso</v>
       </c>
-      <c r="G5" s="61"/>
+      <c r="G5" s="61" t="s">
+        <v>91</v>
+      </c>
       <c r="H5" s="58"/>
       <c r="I5" s="58"/>
       <c r="J5" s="14"/>
@@ -2631,7 +2613,7 @@
         <v>M7A</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="16.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:16" ht="16.25" thickBot="1">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -2655,7 +2637,7 @@
         <v>M8A</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="15" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="24" t="s">
         <v>40</v>
@@ -2684,7 +2666,7 @@
         <v>M9B</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="8" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" s="8" customFormat="1" ht="17" thickBot="1">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -2711,7 +2693,7 @@
       </c>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="1:16" ht="38.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" ht="38.75" customHeight="1" thickBot="1">
       <c r="A9" s="21" t="s">
         <v>2</v>
       </c>
@@ -2726,7 +2708,7 @@
       </c>
       <c r="E9" s="18" t="str">
         <f>IF($G$4="Recurso",$M$1,$L$1)</f>
-        <v xml:space="preserve">Ubicación de la imagen en el recurso </v>
+        <v>Ubicación de la imagen en el recurso M101</v>
       </c>
       <c r="F9" s="57" t="s">
         <v>61</v>
@@ -2751,7 +2733,7 @@
         <v>M10B</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16" s="11" customFormat="1">
       <c r="A10" s="12" t="str">
         <f>IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),"IMG01","")</f>
         <v>IMG01</v>
@@ -2761,34 +2743,40 @@
       </c>
       <c r="C10" s="20" t="str">
         <f t="shared" ref="C10:C41" si="0">IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
-        <v xml:space="preserve">Recurso </v>
-      </c>
-      <c r="D10" s="63"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="13" t="e">
+        <v>Recurso M101</v>
+      </c>
+      <c r="D10" s="63" t="s">
+        <v>190</v>
+      </c>
+      <c r="E10" s="63" t="s">
+        <v>155</v>
+      </c>
+      <c r="F10" s="13" t="str">
         <f t="shared" ref="F10" ca="1" si="1">IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),CONCATENATE($C$7,"_",$A10,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I10="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G10" s="13" t="e">
+        <v>LE_07_01_REC240_IMG01n.png</v>
+      </c>
+      <c r="G10" s="13" t="str">
         <f ca="1">IF($F10&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E10,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H10" s="13" t="e">
+        <v>286 x 286 px</v>
+      </c>
+      <c r="H10" s="13" t="str">
         <f t="shared" ref="H10" ca="1" si="2">IF(AND(I10&lt;&gt;"",I10&lt;&gt;0),IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),CONCATENATE($C$7,"_",$A10,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I10" s="13" t="e">
+        <v>LE_07_01_REC240_IMG01a.png</v>
+      </c>
+      <c r="I10" s="13" t="str">
         <f ca="1">IF(OR($B10&lt;&gt;"",$J10&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E10,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E10,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v>#N/A</v>
+        <v>500 x 500 px</v>
       </c>
       <c r="J10" s="63"/>
-      <c r="K10" s="64"/>
+      <c r="K10" s="64" t="s">
+        <v>191</v>
+      </c>
       <c r="O10" s="2" t="str">
         <f>'Definición técnica de imagenes'!A12</f>
         <v>M12D</v>
       </c>
     </row>
-    <row r="11" spans="1:16" s="11" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:16" s="11" customFormat="1" ht="14" customHeight="1">
       <c r="A11" s="12" t="str">
         <f t="shared" ref="A11:A18" si="3">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE(LEFT(A10,3),IF(MID(A10,4,2)+1&lt;10,CONCATENATE("0",MID(A10,4,2)+1))),"")</f>
         <v>IMG02</v>
@@ -2798,34 +2786,40 @@
       </c>
       <c r="C11" s="20" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Recurso </v>
-      </c>
-      <c r="D11" s="63"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="13" t="e">
+        <v>Recurso M101</v>
+      </c>
+      <c r="D11" s="63" t="s">
+        <v>190</v>
+      </c>
+      <c r="E11" s="63" t="s">
+        <v>155</v>
+      </c>
+      <c r="F11" s="13" t="str">
         <f t="shared" ref="F11:F74" ca="1" si="4">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE($C$7,"_",$A11,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I11="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G11" s="13" t="e">
+        <v>LE_07_01_REC240_IMG02n.png</v>
+      </c>
+      <c r="G11" s="13" t="str">
         <f ca="1">IF($F11&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E11,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H11" s="13" t="e">
+        <v>286 x 286 px</v>
+      </c>
+      <c r="H11" s="13" t="str">
         <f t="shared" ref="H11:H74" ca="1" si="5">IF(AND(I11&lt;&gt;"",I11&lt;&gt;0),IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE($C$7,"_",$A11,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I11" s="13" t="e">
+        <v>LE_07_01_REC240_IMG02a.png</v>
+      </c>
+      <c r="I11" s="13" t="str">
         <f ca="1">IF(OR($B11&lt;&gt;"",$J11&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E11,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E11,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v>#N/A</v>
+        <v>500 x 500 px</v>
       </c>
       <c r="J11" s="64"/>
-      <c r="K11" s="65"/>
+      <c r="K11" s="65" t="s">
+        <v>192</v>
+      </c>
       <c r="O11" s="2" t="str">
         <f>'Definición técnica de imagenes'!A13</f>
         <v>M101</v>
       </c>
     </row>
-    <row r="12" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:16" s="11" customFormat="1">
       <c r="A12" s="12" t="str">
         <f t="shared" si="3"/>
         <v>IMG03</v>
@@ -2835,34 +2829,40 @@
       </c>
       <c r="C12" s="20" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Recurso </v>
-      </c>
-      <c r="D12" s="63"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="13" t="e">
+        <v>Recurso M101</v>
+      </c>
+      <c r="D12" s="63" t="s">
+        <v>190</v>
+      </c>
+      <c r="E12" s="63" t="s">
+        <v>155</v>
+      </c>
+      <c r="F12" s="13" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G12" s="13" t="e">
+        <v>LE_07_01_REC240_IMG03n.png</v>
+      </c>
+      <c r="G12" s="13" t="str">
         <f ca="1">IF($F12&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E12,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H12" s="13" t="e">
+        <v>286 x 286 px</v>
+      </c>
+      <c r="H12" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I12" s="13" t="e">
+        <v>LE_07_01_REC240_IMG03a.png</v>
+      </c>
+      <c r="I12" s="13" t="str">
         <f ca="1">IF(OR($B12&lt;&gt;"",$J12&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E12,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E12,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v>#N/A</v>
+        <v>500 x 500 px</v>
       </c>
       <c r="J12" s="64"/>
-      <c r="K12" s="64"/>
+      <c r="K12" s="64" t="s">
+        <v>193</v>
+      </c>
       <c r="O12" s="2" t="str">
         <f>'Definición técnica de imagenes'!A18</f>
         <v>Diaporama F1</v>
       </c>
     </row>
-    <row r="13" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16" s="11" customFormat="1">
       <c r="A13" s="12" t="str">
         <f t="shared" si="3"/>
         <v>IMG04</v>
@@ -2872,34 +2872,40 @@
       </c>
       <c r="C13" s="20" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Recurso </v>
-      </c>
-      <c r="D13" s="63"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="13" t="e">
+        <v>Recurso M101</v>
+      </c>
+      <c r="D13" s="63" t="s">
+        <v>190</v>
+      </c>
+      <c r="E13" s="63" t="s">
+        <v>155</v>
+      </c>
+      <c r="F13" s="13" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G13" s="13" t="e">
+        <v>LE_07_01_REC240_IMG04n.png</v>
+      </c>
+      <c r="G13" s="13" t="str">
         <f ca="1">IF($F13&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E13,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H13" s="13" t="e">
+        <v>286 x 286 px</v>
+      </c>
+      <c r="H13" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I13" s="13" t="e">
+        <v>LE_07_01_REC240_IMG04a.png</v>
+      </c>
+      <c r="I13" s="13" t="str">
         <f ca="1">IF(OR($B13&lt;&gt;"",$J13&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E13,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E13,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v>#N/A</v>
+        <v>500 x 500 px</v>
       </c>
       <c r="J13" s="64"/>
-      <c r="K13" s="64"/>
+      <c r="K13" s="64" t="s">
+        <v>194</v>
+      </c>
       <c r="O13" s="2" t="str">
         <f>'Definición técnica de imagenes'!A19</f>
         <v>F4</v>
       </c>
     </row>
-    <row r="14" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:16" s="11" customFormat="1" ht="15">
       <c r="A14" s="12" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -2934,7 +2940,7 @@
         <v>F6</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16" s="11" customFormat="1" ht="15">
       <c r="A15" s="12" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -2969,7 +2975,7 @@
         <v>F6B</v>
       </c>
     </row>
-    <row r="16" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16" s="11" customFormat="1" ht="15">
       <c r="A16" s="12" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3004,7 +3010,7 @@
         <v>F7</v>
       </c>
     </row>
-    <row r="17" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:15" s="11" customFormat="1" ht="15">
       <c r="A17" s="12" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3039,7 +3045,7 @@
         <v>F7B</v>
       </c>
     </row>
-    <row r="18" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:15" s="11" customFormat="1" ht="15">
       <c r="A18" s="12" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3074,7 +3080,7 @@
         <v>F8</v>
       </c>
     </row>
-    <row r="19" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:15" s="11" customFormat="1" ht="15">
       <c r="A19" s="12" t="str">
         <f t="shared" ref="A19:A50" si="6">IF(OR(B19&lt;&gt;"",J19&lt;&gt;""),CONCATENATE(LEFT(A18,3),IF(MID(A18,4,2)+1&lt;10,CONCATENATE("0",MID(A18,4,2)+1),MID(A18,4,2)+1)),"")</f>
         <v/>
@@ -3109,7 +3115,7 @@
         <v>F10</v>
       </c>
     </row>
-    <row r="20" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:15" s="11" customFormat="1" ht="15">
       <c r="A20" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3144,7 +3150,7 @@
         <v>F10B</v>
       </c>
     </row>
-    <row r="21" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:15" s="11" customFormat="1" ht="15">
       <c r="A21" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3179,7 +3185,7 @@
         <v>F11</v>
       </c>
     </row>
-    <row r="22" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:15" s="11" customFormat="1" ht="15">
       <c r="A22" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3214,7 +3220,7 @@
         <v>F12</v>
       </c>
     </row>
-    <row r="23" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:15" s="11" customFormat="1" ht="15">
       <c r="A23" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3249,7 +3255,7 @@
         <v>F13</v>
       </c>
     </row>
-    <row r="24" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:15" s="11" customFormat="1" ht="15">
       <c r="A24" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3284,7 +3290,7 @@
         <v>F13B</v>
       </c>
     </row>
-    <row r="25" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:15" s="11" customFormat="1" ht="15">
       <c r="A25" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3315,7 +3321,7 @@
       <c r="J25" s="63"/>
       <c r="K25" s="64"/>
     </row>
-    <row r="26" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:15" s="11" customFormat="1" ht="15">
       <c r="A26" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3346,7 +3352,7 @@
       <c r="J26" s="63"/>
       <c r="K26" s="64"/>
     </row>
-    <row r="27" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:15" s="11" customFormat="1" ht="15">
       <c r="A27" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3378,7 +3384,7 @@
       <c r="K27" s="64"/>
       <c r="O27" s="2"/>
     </row>
-    <row r="28" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:15" s="11" customFormat="1" ht="15">
       <c r="A28" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3409,7 +3415,7 @@
       <c r="J28" s="64"/>
       <c r="K28" s="64"/>
     </row>
-    <row r="29" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:15" s="11" customFormat="1" ht="15">
       <c r="A29" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3440,7 +3446,7 @@
       <c r="J29" s="64"/>
       <c r="K29" s="64"/>
     </row>
-    <row r="30" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:15" s="11" customFormat="1" ht="15">
       <c r="A30" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3471,7 +3477,7 @@
       <c r="J30" s="64"/>
       <c r="K30" s="64"/>
     </row>
-    <row r="31" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:15" s="11" customFormat="1" ht="15">
       <c r="A31" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3502,7 +3508,7 @@
       <c r="J31" s="64"/>
       <c r="K31" s="64"/>
     </row>
-    <row r="32" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:15" s="11" customFormat="1" ht="15">
       <c r="A32" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3533,7 +3539,7 @@
       <c r="J32" s="64"/>
       <c r="K32" s="64"/>
     </row>
-    <row r="33" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:15" s="11" customFormat="1" ht="15">
       <c r="A33" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3564,7 +3570,7 @@
       <c r="J33" s="64"/>
       <c r="K33" s="64"/>
     </row>
-    <row r="34" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:15" s="11" customFormat="1" ht="15">
       <c r="A34" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3596,7 +3602,7 @@
       <c r="K34" s="64"/>
       <c r="O34" s="2"/>
     </row>
-    <row r="35" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:15" s="11" customFormat="1" ht="15">
       <c r="A35" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3628,7 +3634,7 @@
       <c r="K35" s="65"/>
       <c r="O35" s="2"/>
     </row>
-    <row r="36" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:15" s="11" customFormat="1" ht="15">
       <c r="A36" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3660,7 +3666,7 @@
       <c r="K36" s="65"/>
       <c r="O36" s="2"/>
     </row>
-    <row r="37" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:15" s="11" customFormat="1" ht="15">
       <c r="A37" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3691,7 +3697,7 @@
       <c r="J37" s="70"/>
       <c r="K37" s="65"/>
     </row>
-    <row r="38" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:15" s="11" customFormat="1" ht="15">
       <c r="A38" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3722,7 +3728,7 @@
       <c r="J38" s="71"/>
       <c r="K38" s="65"/>
     </row>
-    <row r="39" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:15" s="11" customFormat="1" ht="15">
       <c r="A39" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3753,7 +3759,7 @@
       <c r="J39" s="63"/>
       <c r="K39" s="65"/>
     </row>
-    <row r="40" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:15" s="11" customFormat="1" ht="15">
       <c r="A40" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3784,7 +3790,7 @@
       <c r="J40" s="63"/>
       <c r="K40" s="65"/>
     </row>
-    <row r="41" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:15" s="11" customFormat="1" ht="15">
       <c r="A41" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3815,7 +3821,7 @@
       <c r="J41" s="63"/>
       <c r="K41" s="65"/>
     </row>
-    <row r="42" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:15" s="11" customFormat="1" ht="15">
       <c r="A42" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3846,7 +3852,7 @@
       <c r="J42" s="63"/>
       <c r="K42" s="65"/>
     </row>
-    <row r="43" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:15" s="11" customFormat="1" ht="15">
       <c r="A43" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3877,7 +3883,7 @@
       <c r="J43" s="63"/>
       <c r="K43" s="65"/>
     </row>
-    <row r="44" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:15" s="11" customFormat="1" ht="15">
       <c r="A44" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3908,7 +3914,7 @@
       <c r="J44" s="63"/>
       <c r="K44" s="65"/>
     </row>
-    <row r="45" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:15" s="11" customFormat="1" ht="15">
       <c r="A45" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3939,7 +3945,7 @@
       <c r="J45" s="63"/>
       <c r="K45" s="65"/>
     </row>
-    <row r="46" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:15" s="11" customFormat="1" ht="15">
       <c r="A46" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3970,7 +3976,7 @@
       <c r="J46" s="63"/>
       <c r="K46" s="65"/>
     </row>
-    <row r="47" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:15" s="11" customFormat="1" ht="15">
       <c r="A47" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -4001,7 +4007,7 @@
       <c r="J47" s="63"/>
       <c r="K47" s="65"/>
     </row>
-    <row r="48" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:15" s="11" customFormat="1" ht="15">
       <c r="A48" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -4032,7 +4038,7 @@
       <c r="J48" s="63"/>
       <c r="K48" s="65"/>
     </row>
-    <row r="49" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A49" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -4063,7 +4069,7 @@
       <c r="J49" s="63"/>
       <c r="K49" s="65"/>
     </row>
-    <row r="50" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A50" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -4094,7 +4100,7 @@
       <c r="J50" s="63"/>
       <c r="K50" s="65"/>
     </row>
-    <row r="51" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A51" s="12" t="str">
         <f t="shared" ref="A51:A82" si="8">IF(OR(B51&lt;&gt;"",J51&lt;&gt;""),CONCATENATE(LEFT(A50,3),IF(MID(A50,4,2)+1&lt;10,CONCATENATE("0",MID(A50,4,2)+1),MID(A50,4,2)+1)),"")</f>
         <v/>
@@ -4125,7 +4131,7 @@
       <c r="J51" s="63"/>
       <c r="K51" s="65"/>
     </row>
-    <row r="52" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A52" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4156,7 +4162,7 @@
       <c r="J52" s="63"/>
       <c r="K52" s="65"/>
     </row>
-    <row r="53" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A53" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4187,7 +4193,7 @@
       <c r="J53" s="63"/>
       <c r="K53" s="65"/>
     </row>
-    <row r="54" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A54" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4218,7 +4224,7 @@
       <c r="J54" s="63"/>
       <c r="K54" s="65"/>
     </row>
-    <row r="55" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A55" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4249,7 +4255,7 @@
       <c r="J55" s="63"/>
       <c r="K55" s="65"/>
     </row>
-    <row r="56" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A56" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4280,7 +4286,7 @@
       <c r="J56" s="63"/>
       <c r="K56" s="65"/>
     </row>
-    <row r="57" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A57" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4311,7 +4317,7 @@
       <c r="J57" s="63"/>
       <c r="K57" s="65"/>
     </row>
-    <row r="58" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A58" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4342,7 +4348,7 @@
       <c r="J58" s="63"/>
       <c r="K58" s="65"/>
     </row>
-    <row r="59" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A59" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4373,7 +4379,7 @@
       <c r="J59" s="63"/>
       <c r="K59" s="65"/>
     </row>
-    <row r="60" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A60" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4404,7 +4410,7 @@
       <c r="J60" s="63"/>
       <c r="K60" s="65"/>
     </row>
-    <row r="61" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A61" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4435,7 +4441,7 @@
       <c r="J61" s="63"/>
       <c r="K61" s="65"/>
     </row>
-    <row r="62" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A62" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4466,7 +4472,7 @@
       <c r="J62" s="63"/>
       <c r="K62" s="65"/>
     </row>
-    <row r="63" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A63" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4497,7 +4503,7 @@
       <c r="J63" s="63"/>
       <c r="K63" s="65"/>
     </row>
-    <row r="64" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A64" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4528,7 +4534,7 @@
       <c r="J64" s="63"/>
       <c r="K64" s="65"/>
     </row>
-    <row r="65" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A65" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4559,7 +4565,7 @@
       <c r="J65" s="63"/>
       <c r="K65" s="65"/>
     </row>
-    <row r="66" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A66" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4590,7 +4596,7 @@
       <c r="J66" s="63"/>
       <c r="K66" s="65"/>
     </row>
-    <row r="67" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A67" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4621,7 +4627,7 @@
       <c r="J67" s="63"/>
       <c r="K67" s="65"/>
     </row>
-    <row r="68" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A68" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4652,7 +4658,7 @@
       <c r="J68" s="63"/>
       <c r="K68" s="65"/>
     </row>
-    <row r="69" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A69" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4683,7 +4689,7 @@
       <c r="J69" s="63"/>
       <c r="K69" s="65"/>
     </row>
-    <row r="70" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A70" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4714,7 +4720,7 @@
       <c r="J70" s="63"/>
       <c r="K70" s="65"/>
     </row>
-    <row r="71" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A71" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4745,7 +4751,7 @@
       <c r="J71" s="63"/>
       <c r="K71" s="65"/>
     </row>
-    <row r="72" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A72" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4776,7 +4782,7 @@
       <c r="J72" s="63"/>
       <c r="K72" s="65"/>
     </row>
-    <row r="73" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A73" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4807,7 +4813,7 @@
       <c r="J73" s="63"/>
       <c r="K73" s="65"/>
     </row>
-    <row r="74" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A74" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4838,7 +4844,7 @@
       <c r="J74" s="63"/>
       <c r="K74" s="65"/>
     </row>
-    <row r="75" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A75" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4869,7 +4875,7 @@
       <c r="J75" s="63"/>
       <c r="K75" s="65"/>
     </row>
-    <row r="76" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A76" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4900,7 +4906,7 @@
       <c r="J76" s="63"/>
       <c r="K76" s="65"/>
     </row>
-    <row r="77" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A77" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4931,7 +4937,7 @@
       <c r="J77" s="63"/>
       <c r="K77" s="65"/>
     </row>
-    <row r="78" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A78" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4962,7 +4968,7 @@
       <c r="J78" s="63"/>
       <c r="K78" s="65"/>
     </row>
-    <row r="79" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A79" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4993,7 +4999,7 @@
       <c r="J79" s="63"/>
       <c r="K79" s="65"/>
     </row>
-    <row r="80" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A80" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5024,7 +5030,7 @@
       <c r="J80" s="63"/>
       <c r="K80" s="65"/>
     </row>
-    <row r="81" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A81" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5055,7 +5061,7 @@
       <c r="J81" s="63"/>
       <c r="K81" s="65"/>
     </row>
-    <row r="82" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A82" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5086,7 +5092,7 @@
       <c r="J82" s="63"/>
       <c r="K82" s="65"/>
     </row>
-    <row r="83" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A83" s="12" t="str">
         <f t="shared" ref="A83:A108" si="12">IF(OR(B83&lt;&gt;"",J83&lt;&gt;""),CONCATENATE(LEFT(A82,3),IF(MID(A82,4,2)+1&lt;10,CONCATENATE("0",MID(A82,4,2)+1),MID(A82,4,2)+1)),"")</f>
         <v/>
@@ -5117,7 +5123,7 @@
       <c r="J83" s="63"/>
       <c r="K83" s="65"/>
     </row>
-    <row r="84" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A84" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5148,7 +5154,7 @@
       <c r="J84" s="63"/>
       <c r="K84" s="65"/>
     </row>
-    <row r="85" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A85" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5179,7 +5185,7 @@
       <c r="J85" s="63"/>
       <c r="K85" s="65"/>
     </row>
-    <row r="86" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A86" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5210,7 +5216,7 @@
       <c r="J86" s="63"/>
       <c r="K86" s="65"/>
     </row>
-    <row r="87" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A87" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5241,7 +5247,7 @@
       <c r="J87" s="63"/>
       <c r="K87" s="65"/>
     </row>
-    <row r="88" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A88" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5272,7 +5278,7 @@
       <c r="J88" s="63"/>
       <c r="K88" s="65"/>
     </row>
-    <row r="89" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A89" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5303,7 +5309,7 @@
       <c r="J89" s="63"/>
       <c r="K89" s="65"/>
     </row>
-    <row r="90" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A90" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5334,7 +5340,7 @@
       <c r="J90" s="63"/>
       <c r="K90" s="65"/>
     </row>
-    <row r="91" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A91" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5365,7 +5371,7 @@
       <c r="J91" s="63"/>
       <c r="K91" s="65"/>
     </row>
-    <row r="92" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A92" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5396,7 +5402,7 @@
       <c r="J92" s="63"/>
       <c r="K92" s="65"/>
     </row>
-    <row r="93" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A93" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5427,7 +5433,7 @@
       <c r="J93" s="63"/>
       <c r="K93" s="65"/>
     </row>
-    <row r="94" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A94" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5458,7 +5464,7 @@
       <c r="J94" s="63"/>
       <c r="K94" s="65"/>
     </row>
-    <row r="95" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A95" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5489,7 +5495,7 @@
       <c r="J95" s="63"/>
       <c r="K95" s="65"/>
     </row>
-    <row r="96" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A96" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5520,7 +5526,7 @@
       <c r="J96" s="63"/>
       <c r="K96" s="65"/>
     </row>
-    <row r="97" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A97" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5551,7 +5557,7 @@
       <c r="J97" s="63"/>
       <c r="K97" s="65"/>
     </row>
-    <row r="98" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A98" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5582,7 +5588,7 @@
       <c r="J98" s="63"/>
       <c r="K98" s="65"/>
     </row>
-    <row r="99" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A99" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5613,7 +5619,7 @@
       <c r="J99" s="63"/>
       <c r="K99" s="65"/>
     </row>
-    <row r="100" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A100" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5644,7 +5650,7 @@
       <c r="J100" s="63"/>
       <c r="K100" s="65"/>
     </row>
-    <row r="101" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A101" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5675,7 +5681,7 @@
       <c r="J101" s="63"/>
       <c r="K101" s="65"/>
     </row>
-    <row r="102" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A102" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5706,7 +5712,7 @@
       <c r="J102" s="63"/>
       <c r="K102" s="65"/>
     </row>
-    <row r="103" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A103" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5737,7 +5743,7 @@
       <c r="J103" s="63"/>
       <c r="K103" s="65"/>
     </row>
-    <row r="104" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A104" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5768,7 +5774,7 @@
       <c r="J104" s="63"/>
       <c r="K104" s="65"/>
     </row>
-    <row r="105" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A105" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5799,7 +5805,7 @@
       <c r="J105" s="63"/>
       <c r="K105" s="65"/>
     </row>
-    <row r="106" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A106" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5830,7 +5836,7 @@
       <c r="J106" s="63"/>
       <c r="K106" s="65"/>
     </row>
-    <row r="107" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A107" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5861,7 +5867,7 @@
       <c r="J107" s="63"/>
       <c r="K107" s="65"/>
     </row>
-    <row r="108" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A108" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5933,7 +5939,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5946,7 +5957,7 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="72.1640625" style="22" customWidth="1"/>
     <col min="2" max="2" width="10.83203125" style="22"/>
@@ -5957,7 +5968,7 @@
     <col min="12" max="16384" width="10.83203125" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="17" thickBot="1">
       <c r="A1" s="93" t="s">
         <v>38</v>
       </c>
@@ -5967,7 +5978,7 @@
       <c r="E1" s="94"/>
       <c r="F1" s="95"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11">
       <c r="A2" s="30" t="s">
         <v>42</v>
       </c>
@@ -5979,7 +5990,7 @@
       <c r="E2" s="98"/>
       <c r="F2" s="32"/>
     </row>
-    <row r="3" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="64">
       <c r="A3" s="33" t="s">
         <v>43</v>
       </c>
@@ -6003,7 +6014,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="32">
       <c r="A4" s="30" t="s">
         <v>44</v>
       </c>
@@ -6031,7 +6042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="81" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="81" thickBot="1">
       <c r="A5" s="33" t="s">
         <v>45</v>
       </c>
@@ -6058,7 +6069,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="33" thickBot="1">
       <c r="A6" s="30" t="s">
         <v>10</v>
       </c>
@@ -6080,7 +6091,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="49" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="49" thickBot="1">
       <c r="A7" s="33" t="s">
         <v>11</v>
       </c>
@@ -6107,7 +6118,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="48">
       <c r="A8" s="33" t="s">
         <v>53</v>
       </c>
@@ -6126,7 +6137,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="48">
       <c r="A9" s="33" t="s">
         <v>12</v>
       </c>
@@ -6145,7 +6156,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="33" thickBot="1">
       <c r="A10" s="34" t="s">
         <v>36</v>
       </c>
@@ -6164,7 +6175,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11">
       <c r="I11" s="22" t="s">
         <v>32</v>
       </c>
@@ -6175,7 +6186,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="17" thickBot="1">
       <c r="I12" s="22" t="s">
         <v>37</v>
       </c>
@@ -6186,7 +6197,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11">
       <c r="A13" s="93" t="s">
         <v>41</v>
       </c>
@@ -6205,7 +6216,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="17" thickBot="1">
       <c r="A14" s="33"/>
       <c r="B14" s="31"/>
       <c r="C14" s="31"/>
@@ -6222,7 +6233,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11">
       <c r="A15" s="30" t="s">
         <v>46</v>
       </c>
@@ -6240,7 +6251,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="67" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" ht="67" customHeight="1">
       <c r="A16" s="33" t="s">
         <v>47</v>
       </c>
@@ -6264,7 +6275,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="32" customHeight="1" thickBot="1">
       <c r="A17" s="30" t="s">
         <v>44</v>
       </c>
@@ -6285,7 +6296,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="81" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="81" thickBot="1">
       <c r="A18" s="33" t="s">
         <v>48</v>
       </c>
@@ -6306,7 +6317,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11">
       <c r="A19" s="30" t="s">
         <v>10</v>
       </c>
@@ -6325,7 +6336,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="65" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="65" thickBot="1">
       <c r="A20" s="34" t="s">
         <v>51</v>
       </c>
@@ -6347,7 +6358,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11">
       <c r="H21" s="22" t="str">
         <f>IF(INDEX(H4:H7,H20)=H4,"MA",IF(INDEX(H4:H7,H20)=H5,"CN",IF(INDEX(H4:H7,H20)=H6,"CS",IF(INDEX(H4:H7,H20)=H7,"LE"))))</f>
         <v>LE</v>
@@ -6364,122 +6375,122 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11">
       <c r="K22" s="22">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11">
       <c r="K23" s="22">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11">
       <c r="K24" s="22">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11">
       <c r="K25" s="22">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11">
       <c r="K26" s="22">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11">
       <c r="K27" s="22">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11">
       <c r="K28" s="22">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11">
       <c r="K29" s="22">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11">
       <c r="K30" s="22">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11">
       <c r="K31" s="22">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11">
       <c r="K32" s="22">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="11:11">
       <c r="K33" s="22">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="11:11">
       <c r="K34" s="22">
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="11:11">
       <c r="K35" s="22">
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="11:11">
       <c r="K36" s="22">
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="11:11">
       <c r="K37" s="22">
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="11:11">
       <c r="K38" s="22">
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="11:11">
       <c r="K39" s="22">
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="11:11">
       <c r="K40" s="22">
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="11:11">
       <c r="K41" s="22">
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="11:11">
       <c r="K42" s="22">
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="11:11">
       <c r="K43" s="22">
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="11:11">
       <c r="K44" s="22">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="11:11">
       <c r="K45" s="22" t="str">
         <f>CONCATENATE("REC",K44,0)</f>
         <v>REC10</v>
@@ -6498,15 +6509,14 @@
     <mergeCell ref="D7:F7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x14">
       <controls>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1030" r:id="rId4" name="Drop Down 6">
+            <control shapeId="1030" r:id="rId3" name="Drop Down 6">
               <controlPr defaultSize="0" autoLine="0" autoPict="0" macro="[0]!Listadesplegable2_Cambiar">
                 <anchor moveWithCells="1">
                   <from>
@@ -6529,7 +6539,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1031" r:id="rId5" name="Drop Down 7">
+            <control shapeId="1031" r:id="rId4" name="Drop Down 7">
               <controlPr defaultSize="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -6552,7 +6562,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1032" r:id="rId6" name="Drop Down 8">
+            <control shapeId="1032" r:id="rId5" name="Drop Down 8">
               <controlPr defaultSize="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -6575,7 +6585,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1035" r:id="rId7" name="Drop Down 11">
+            <control shapeId="1035" r:id="rId6" name="Drop Down 11">
               <controlPr defaultSize="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -6598,7 +6608,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1026" r:id="rId8" name="Drop Down 2">
+            <control shapeId="1026" r:id="rId7" name="Drop Down 2">
               <controlPr defaultSize="0" autoLine="0" autoPict="0" macro="[0]!Listadesplegable2_Cambiar">
                 <anchor moveWithCells="1">
                   <from>
@@ -6621,7 +6631,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1028" r:id="rId9" name="Drop Down 4">
+            <control shapeId="1028" r:id="rId8" name="Drop Down 4">
               <controlPr defaultSize="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -6644,7 +6654,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1029" r:id="rId10" name="Drop Down 5">
+            <control shapeId="1029" r:id="rId9" name="Drop Down 5">
               <controlPr defaultSize="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -6669,6 +6679,11 @@
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -6681,7 +6696,7 @@
       <selection pane="bottomLeft" activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="21" style="22" customWidth="1"/>
     <col min="2" max="2" width="24.1640625" style="22" customWidth="1"/>
@@ -6696,7 +6711,7 @@
     <col min="11" max="16384" width="10.83203125" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="A1" s="108" t="s">
         <v>56</v>
       </c>
@@ -6723,7 +6738,7 @@
       </c>
       <c r="I1" s="107"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10">
       <c r="A2" s="108"/>
       <c r="B2" s="108"/>
       <c r="C2" s="108"/>
@@ -6738,7 +6753,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="41" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:10" s="41" customFormat="1" ht="14.75" customHeight="1">
       <c r="A3" s="40" t="s">
         <v>69</v>
       </c>
@@ -6763,7 +6778,7 @@
       </c>
       <c r="I3" s="40"/>
     </row>
-    <row r="4" spans="1:10" s="41" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:10" s="41" customFormat="1" ht="14.75" customHeight="1">
       <c r="A4" s="42" t="s">
         <v>57</v>
       </c>
@@ -6792,7 +6807,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="41" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:10" s="41" customFormat="1" ht="14.75" customHeight="1">
       <c r="A5" s="43" t="s">
         <v>77</v>
       </c>
@@ -6821,7 +6836,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="41" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" s="41" customFormat="1" ht="14.75" customHeight="1">
       <c r="A6" s="42" t="s">
         <v>58</v>
       </c>
@@ -6850,7 +6865,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="41" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" s="41" customFormat="1" ht="14.75" customHeight="1">
       <c r="A7" s="42" t="s">
         <v>58</v>
       </c>
@@ -6875,7 +6890,7 @@
       </c>
       <c r="I7" s="42"/>
     </row>
-    <row r="8" spans="1:10" s="41" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:10" s="41" customFormat="1" ht="14.75" customHeight="1">
       <c r="A8" s="42" t="s">
         <v>80</v>
       </c>
@@ -6904,7 +6919,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="41" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:10" s="41" customFormat="1" ht="14.75" customHeight="1">
       <c r="A9" s="42" t="s">
         <v>82</v>
       </c>
@@ -6933,7 +6948,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="41" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:10" s="41" customFormat="1" ht="14.75" customHeight="1">
       <c r="A10" s="42" t="s">
         <v>84</v>
       </c>
@@ -6962,7 +6977,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="41" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" s="41" customFormat="1" ht="14.75" customHeight="1">
       <c r="A11" s="42" t="s">
         <v>86</v>
       </c>
@@ -6987,7 +7002,7 @@
       </c>
       <c r="I11" s="42"/>
     </row>
-    <row r="12" spans="1:10" s="41" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" s="41" customFormat="1" ht="14.75" customHeight="1">
       <c r="A12" s="42" t="s">
         <v>89</v>
       </c>
@@ -7016,7 +7031,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="41" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:10" s="41" customFormat="1" ht="14.75" customHeight="1">
       <c r="A13" s="42" t="s">
         <v>91</v>
       </c>
@@ -7045,7 +7060,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="14.75" customHeight="1">
       <c r="A14" s="44" t="s">
         <v>94</v>
       </c>
@@ -7068,7 +7083,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="77" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" s="77" customFormat="1" ht="14.75" customHeight="1">
       <c r="A15" s="75" t="s">
         <v>96</v>
       </c>
@@ -7094,7 +7109,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="14.75" customHeight="1">
       <c r="A16" s="46" t="s">
         <v>100</v>
       </c>
@@ -7122,7 +7137,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" ht="14.75" customHeight="1">
       <c r="A17" s="42" t="s">
         <v>103</v>
       </c>
@@ -7150,7 +7165,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="14.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:10" ht="14.75" customHeight="1">
       <c r="A18" s="42" t="s">
         <v>184</v>
       </c>
@@ -7176,7 +7191,7 @@
       <c r="I18" s="44"/>
       <c r="J18" s="49"/>
     </row>
-    <row r="19" spans="1:10" ht="14.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:10" ht="14.75" customHeight="1">
       <c r="A19" s="42" t="s">
         <v>137</v>
       </c>
@@ -7200,7 +7215,7 @@
       <c r="I19" s="44"/>
       <c r="J19" s="49"/>
     </row>
-    <row r="20" spans="1:10" ht="14.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:10" ht="14.75" customHeight="1">
       <c r="A20" s="42" t="s">
         <v>137</v>
       </c>
@@ -7224,7 +7239,7 @@
       <c r="I20" s="44"/>
       <c r="J20" s="49"/>
     </row>
-    <row r="21" spans="1:10" ht="14.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:10" ht="14.75" customHeight="1">
       <c r="A21" s="42" t="s">
         <v>137</v>
       </c>
@@ -7248,7 +7263,7 @@
       <c r="I21" s="72"/>
       <c r="J21" s="49"/>
     </row>
-    <row r="22" spans="1:10" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" ht="14.75" customHeight="1">
       <c r="A22" s="44" t="s">
         <v>132</v>
       </c>
@@ -7272,7 +7287,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" ht="14.75" customHeight="1">
       <c r="A23" s="42" t="s">
         <v>132</v>
       </c>
@@ -7301,7 +7316,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="14.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:10" ht="14.75" customHeight="1">
       <c r="A24" s="42" t="s">
         <v>134</v>
       </c>
@@ -7324,7 +7339,7 @@
       <c r="H24" s="44"/>
       <c r="I24" s="72"/>
     </row>
-    <row r="25" spans="1:10" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" ht="14.75" customHeight="1">
       <c r="A25" s="42" t="s">
         <v>135</v>
       </c>
@@ -7348,7 +7363,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" ht="14.75" customHeight="1">
       <c r="A26" s="42" t="s">
         <v>135</v>
       </c>
@@ -7377,7 +7392,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" ht="14.75" customHeight="1">
       <c r="A27" s="42" t="s">
         <v>138</v>
       </c>
@@ -7401,7 +7416,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" ht="14.75" customHeight="1">
       <c r="A28" s="42" t="s">
         <v>138</v>
       </c>
@@ -7425,7 +7440,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" ht="14.75" customHeight="1">
       <c r="A29" s="42" t="s">
         <v>138</v>
       </c>
@@ -7454,7 +7469,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" ht="14.75" customHeight="1">
       <c r="A30" s="42" t="s">
         <v>139</v>
       </c>
@@ -7477,7 +7492,7 @@
       <c r="H30" s="44"/>
       <c r="I30" s="44"/>
     </row>
-    <row r="31" spans="1:10" ht="14.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:10" ht="14.75" customHeight="1">
       <c r="A31" s="42" t="s">
         <v>140</v>
       </c>
@@ -7494,7 +7509,7 @@
       <c r="H31" s="44"/>
       <c r="I31" s="44"/>
     </row>
-    <row r="32" spans="1:10" ht="14.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:10" ht="14.75" customHeight="1">
       <c r="A32" s="42" t="s">
         <v>141</v>
       </c>
@@ -7509,7 +7524,7 @@
       <c r="H32" s="44"/>
       <c r="I32" s="44"/>
     </row>
-    <row r="33" spans="1:9" ht="14.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:9" ht="14.75" customHeight="1">
       <c r="A33" s="42" t="s">
         <v>136</v>
       </c>
@@ -7530,7 +7545,7 @@
       <c r="H33" s="44"/>
       <c r="I33" s="44"/>
     </row>
-    <row r="34" spans="1:9" ht="14.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:9" ht="14.75" customHeight="1">
       <c r="A34" s="42" t="s">
         <v>142</v>
       </c>
@@ -7547,7 +7562,7 @@
       <c r="H34" s="44"/>
       <c r="I34" s="44"/>
     </row>
-    <row r="35" spans="1:9" ht="14.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:9" ht="14.75" customHeight="1">
       <c r="A35" s="42" t="s">
         <v>95</v>
       </c>
@@ -7576,7 +7591,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="14.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:9" ht="14.75" customHeight="1">
       <c r="A36" s="42" t="s">
         <v>95</v>
       </c>
@@ -7605,7 +7620,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="14.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:9" ht="14.75" customHeight="1">
       <c r="A37" s="42" t="s">
         <v>143</v>
       </c>
@@ -7628,7 +7643,7 @@
       <c r="H37" s="44"/>
       <c r="I37" s="44"/>
     </row>
-    <row r="38" spans="1:9" ht="14.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:9" ht="14.75" customHeight="1">
       <c r="A38" s="42" t="s">
         <v>143</v>
       </c>
@@ -7651,13 +7666,13 @@
       <c r="H38" s="44"/>
       <c r="I38" s="44"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9">
       <c r="A40" s="50" t="s">
         <v>107</v>
       </c>
       <c r="B40" s="50"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9">
       <c r="A41" s="51" t="s">
         <v>108</v>
       </c>
@@ -7671,7 +7686,7 @@
       <c r="E41" s="52"/>
       <c r="F41" s="52"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9">
       <c r="A42" s="54" t="s">
         <v>109</v>
       </c>
@@ -7685,7 +7700,7 @@
       <c r="E42" s="55"/>
       <c r="F42" s="55"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9">
       <c r="A43" s="54" t="s">
         <v>110</v>
       </c>
@@ -7699,7 +7714,7 @@
       <c r="E43" s="55"/>
       <c r="F43" s="55"/>
     </row>
-    <row r="44" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" ht="32">
       <c r="A44" s="54" t="s">
         <v>111</v>
       </c>
@@ -7713,7 +7728,7 @@
       <c r="E44" s="55"/>
       <c r="F44" s="55"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9">
       <c r="A45" s="54" t="s">
         <v>112</v>
       </c>
@@ -7727,7 +7742,7 @@
       <c r="E45" s="55"/>
       <c r="F45" s="55"/>
     </row>
-    <row r="46" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" ht="48">
       <c r="A46" s="54" t="s">
         <v>162</v>
       </c>
@@ -7754,6 +7769,10 @@
     <mergeCell ref="B1:B2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>